--- a/datamining/final_data/tfidf1961_nltk.xlsx
+++ b/datamining/final_data/tfidf1961_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH34"/>
+  <dimension ref="A1:DK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,660 +462,545 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>his</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>4th-grade</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acceleration</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>controlled</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>elementary-school</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>special</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>counseling</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>gifted-child</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>pastoral</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>american</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>copley</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>fo</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>high-school</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>adjustment</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>attitudes</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>casual</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>factor</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>socio-personal</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>toward</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>itself</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>must</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>repeat</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>cause</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>concern</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>creatively</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>high-achieving</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>junior-high</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>low-achieving</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>preferences</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>vocational</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>gifted-children</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>in-service</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>concept</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>philosophies</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>annotated-bibliography</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>cassidy</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>flesher</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>selected</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>drews</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>guidance</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>freehill</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>mf</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>psychology</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>highly</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>problems</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>arousing</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>interest</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>sustaining</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>pupils</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>reactions</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>church</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>nurturing</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>response</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>adults</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>motivation</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>sources</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>college</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>hunter</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>art</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>music</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>new-york-city</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>bronx</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>community</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>participation</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>unique</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>kough</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>practical</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>approaches</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>cw</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>woolcock</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>laboratory</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>research-program</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>scientists</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>young</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>italian</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>schools</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>psychiatrist</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>childs</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>lament</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>million</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>guide</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>knowing</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>approach</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>child-rearing</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>neill</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>radical</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>summerhill</t>
         </is>
@@ -1132,19 +1017,19 @@
         <v>2415</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="E2" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="F2" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="G2" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1465,75 +1350,6 @@
         <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1557,37 +1373,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
       <c r="I3" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="J3" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="K3" t="n">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="L3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1881,75 +1697,6 @@
         <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1985,46 +1732,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="R4" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -2297,75 +2044,6 @@
         <v>0</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2392,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2422,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2443,16 +2121,16 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2713,75 +2391,6 @@
         <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2808,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2847,52 +2456,52 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -3129,75 +2738,6 @@
         <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3221,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3233,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3248,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3257,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -3281,61 +2821,61 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -3545,75 +3085,6 @@
         <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3724,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -3754,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>0</v>
@@ -3961,75 +3432,6 @@
         <v>0</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4056,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -4074,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -4092,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -4149,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -4182,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -4377,75 +3779,6 @@
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4472,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -4523,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -4574,25 +3907,25 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -4610,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
@@ -4793,75 +4126,6 @@
         <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4909,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -4930,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -4990,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -5011,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -5047,19 +4311,19 @@
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -5209,75 +4473,6 @@
         <v>0</v>
       </c>
       <c r="DK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5304,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -5355,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -5406,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -5436,16 +4631,16 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
@@ -5478,16 +4673,16 @@
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
         <v>0</v>
@@ -5625,75 +4820,6 @@
         <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5720,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5729,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -5738,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -5759,10 +4885,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -5771,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -5786,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -5798,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -5864,16 +4990,16 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
@@ -5906,25 +5032,25 @@
         <v>0</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
@@ -6041,75 +5167,6 @@
         <v>0</v>
       </c>
       <c r="DK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6136,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -6172,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -6190,19 +5247,19 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -6214,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
@@ -6292,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -6343,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
@@ -6457,75 +5514,6 @@
         <v>0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6594,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -6603,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -6618,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -6630,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -6675,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AX15" t="n">
         <v>0</v>
@@ -6714,19 +5702,19 @@
         <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
@@ -6771,19 +5759,19 @@
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
         <v>0</v>
@@ -6873,75 +5861,6 @@
         <v>0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6980,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -6998,160 +5917,160 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
         <v>0.44</v>
       </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>0</v>
-      </c>
       <c r="BP16" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="BR16" t="n">
         <v>0</v>
@@ -7202,13 +6121,13 @@
         <v>0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
         <v>0</v>
@@ -7289,75 +6208,6 @@
         <v>0</v>
       </c>
       <c r="DK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7384,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -7408,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -7429,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -7462,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -7486,13 +6336,13 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
@@ -7507,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -7546,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="n">
         <v>0</v>
@@ -7570,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -7627,13 +6477,13 @@
         <v>0</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
         <v>0</v>
@@ -7705,75 +6555,6 @@
         <v>0</v>
       </c>
       <c r="DK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7818,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -7827,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -7839,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -7929,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AZ18" t="n">
         <v>0</v>
@@ -7968,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -7995,10 +6776,10 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -8052,10 +6833,10 @@
         <v>0</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
@@ -8121,75 +6902,6 @@
         <v>0</v>
       </c>
       <c r="DK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8216,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -8225,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -8240,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -8249,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -8273,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -8294,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -8318,13 +7030,13 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
@@ -8417,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="BW19" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="BX19" t="n">
         <v>0</v>
@@ -8474,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="CP19" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="CQ19" t="n">
         <v>0</v>
@@ -8537,75 +7249,6 @@
         <v>0</v>
       </c>
       <c r="DK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8632,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -8809,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="BO20" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
@@ -8836,10 +7479,10 @@
         <v>0</v>
       </c>
       <c r="BX20" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BY20" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BZ20" t="n">
         <v>0</v>
@@ -8866,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CI20" t="n">
         <v>0</v>
@@ -8893,10 +7536,10 @@
         <v>0</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="CS20" t="n">
         <v>0</v>
@@ -8953,75 +7596,6 @@
         <v>0</v>
       </c>
       <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9066,13 +7640,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9087,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -9147,10 +7721,10 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -9183,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
         <v>0</v>
@@ -9258,13 +7832,13 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CA21" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CB21" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CC21" t="n">
         <v>0</v>
@@ -9315,13 +7889,13 @@
         <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CV21" t="n">
         <v>0</v>
@@ -9369,75 +7943,6 @@
         <v>0</v>
       </c>
       <c r="DK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9515,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -9539,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -9683,10 +8188,10 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CD22" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -9740,10 +8245,10 @@
         <v>0</v>
       </c>
       <c r="CV22" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="CW22" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="CX22" t="n">
         <v>0</v>
@@ -9785,75 +8290,6 @@
         <v>0</v>
       </c>
       <c r="DK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9880,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -9931,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -9955,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -9982,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
@@ -10105,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="CF23" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="CG23" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="CH23" t="n">
         <v>0</v>
@@ -10162,13 +8598,13 @@
         <v>0</v>
       </c>
       <c r="CX23" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="DA23" t="n">
         <v>0</v>
@@ -10201,75 +8637,6 @@
         <v>0</v>
       </c>
       <c r="DK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10296,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -10305,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -10314,13 +8681,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -10332,22 +8699,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -10371,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -10398,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -10530,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="CH24" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="CI24" t="n">
         <v>0</v>
@@ -10587,10 +8954,10 @@
         <v>0</v>
       </c>
       <c r="DA24" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="DB24" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -10617,75 +8984,6 @@
         <v>0</v>
       </c>
       <c r="DK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10712,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -10721,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -10730,13 +9028,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P25" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10751,10 +9049,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -10763,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -10814,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -10877,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="BK25" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BL25" t="n">
         <v>0</v>
@@ -10931,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CD25" t="n">
         <v>0</v>
@@ -10949,16 +9247,16 @@
         <v>0</v>
       </c>
       <c r="CI25" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CJ25" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="CK25" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CL25" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="CM25" t="n">
         <v>0</v>
@@ -11009,16 +9307,16 @@
         <v>0</v>
       </c>
       <c r="DC25" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DD25" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DE25" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DG25" t="n">
         <v>0</v>
@@ -11033,75 +9331,6 @@
         <v>0</v>
       </c>
       <c r="DK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11128,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -11146,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -11164,13 +9393,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -11182,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -11194,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -11206,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -11377,13 +9606,13 @@
         <v>0</v>
       </c>
       <c r="CM26" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="CN26" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="CO26" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="CP26" t="n">
         <v>0</v>
@@ -11437,87 +9666,18 @@
         <v>0</v>
       </c>
       <c r="DG26" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DH26" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DI26" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11544,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -11562,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -11571,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -11583,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -11598,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -11610,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -11622,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
@@ -11646,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
         <v>0</v>
@@ -11709,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="BK27" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BL27" t="n">
         <v>0</v>
@@ -11763,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="CC27" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="CD27" t="n">
         <v>0</v>
@@ -11802,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="CP27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CR27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CS27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CT27" t="n">
         <v>0</v>
@@ -11865,75 +10025,6 @@
         <v>0</v>
       </c>
       <c r="DK27" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="DL27" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="DM27" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="DN27" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="DO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11978,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -11999,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -12230,16 +10321,16 @@
         <v>0</v>
       </c>
       <c r="CT28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CU28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CV28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CW28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CX28" t="n">
         <v>0</v>
@@ -12281,75 +10372,6 @@
         <v>0</v>
       </c>
       <c r="DK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DP28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DQ28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DR28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12376,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -12400,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -12409,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -12433,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -12658,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="CX29" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CY29" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CZ29" t="n">
         <v>0</v>
@@ -12697,75 +10719,6 @@
         <v>0</v>
       </c>
       <c r="DK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS29" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="DT29" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="DU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12792,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -12801,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -12810,13 +10763,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="P30" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -12831,10 +10784,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -13080,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="CZ30" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="DA30" t="n">
         <v>0</v>
@@ -13113,75 +11066,6 @@
         <v>0</v>
       </c>
       <c r="DK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU30" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="DV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13217,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -13226,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -13247,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -13499,10 +11383,10 @@
         <v>0</v>
       </c>
       <c r="DA31" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="DB31" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="DC31" t="n">
         <v>0</v>
@@ -13529,75 +11413,6 @@
         <v>0</v>
       </c>
       <c r="DK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV31" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="DW31" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="DX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13624,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -13642,13 +11457,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -13663,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -13921,10 +11736,10 @@
         <v>0</v>
       </c>
       <c r="DC32" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="DD32" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="DE32" t="n">
         <v>0</v>
@@ -13945,75 +11760,6 @@
         <v>0</v>
       </c>
       <c r="DK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX32" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="DY32" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="DZ32" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="EA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14040,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -14049,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -14067,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -14076,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -14154,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -14190,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BG33" t="n">
         <v>0</v>
@@ -14280,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="CJ33" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="CK33" t="n">
         <v>0</v>
@@ -14331,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="DA33" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DB33" t="n">
         <v>0</v>
@@ -14340,13 +12086,13 @@
         <v>0</v>
       </c>
       <c r="DD33" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="DE33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DF33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DG33" t="n">
         <v>0</v>
@@ -14361,75 +12107,6 @@
         <v>0</v>
       </c>
       <c r="DK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV33" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="DW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA33" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EB33" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EC33" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="ED33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14465,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -14483,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -14498,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -14510,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -14522,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -14534,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -14546,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -14765,88 +12442,19 @@
         <v>0</v>
       </c>
       <c r="DG34" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DH34" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DI34" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DJ34" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED34" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EE34" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EF34" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EG34" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="EH34" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
